--- a/rough_sheet.xlsx
+++ b/rough_sheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-QSF3VEN\Documents\everythin_new\voyager\transform_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2C363F-8718-465D-9DAF-ED32B462D648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD21307-58E7-404F-B8E0-57CAB6B3DAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9FBDF59D-92B4-4887-97C8-1A8A4A9BFC16}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,79 +27,255 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Fraud Type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Unauthorized account opened in my name</t>
-  </si>
-  <si>
-    <t>An account was created without the knowledge or consent of the person.</t>
-  </si>
-  <si>
-    <t>Unauthorized charges were billed to my account</t>
-  </si>
-  <si>
-    <t>Unexpected charges have appeared on the bill.</t>
-  </si>
-  <si>
-    <t>Unauthorized changes were made to my account</t>
-  </si>
-  <si>
-    <t>Alterations to the account details or services without permission.</t>
-  </si>
-  <si>
-    <t>Unauthorized wireless number on my bill</t>
-  </si>
-  <si>
-    <t>A phone number that the account holde</t>
-  </si>
-  <si>
-    <t>Device was lost/stolen</t>
-  </si>
-  <si>
-    <t>Reporting the loss or theft of a device.</t>
-  </si>
-  <si>
-    <t>Unauthorized payments from my bank account/credit card</t>
-  </si>
-  <si>
-    <t>Indicating unexpected charges from a bank account or credit card.</t>
-  </si>
-  <si>
-    <t>Received suspicious phone call, text, or email</t>
-  </si>
-  <si>
-    <t>Highlighting potentially malicious or scam-related communications.</t>
-  </si>
-  <si>
-    <t>DirecTV related inquiries</t>
-  </si>
-  <si>
-    <t>Queries or issues related to the DirecTV service.</t>
-  </si>
-  <si>
-    <t>Voice/Internet related inquiries</t>
-  </si>
-  <si>
-    <t>Questions or concerns about voice or internet services provided by AT&amp;T.</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Other unspecified issues or concerns that a customer may want to report or inquire about.</t>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Estimated Cost ($)</t>
+  </si>
+  <si>
+    <t>Basic API Access</t>
+  </si>
+  <si>
+    <t>$10-100</t>
+  </si>
+  <si>
+    <t>Prompt Engineering</t>
+  </si>
+  <si>
+    <t>Carefully design prompts to provide better image context</t>
+  </si>
+  <si>
+    <t>$100-500</t>
+  </si>
+  <si>
+    <t>Few-Shot Learning</t>
+  </si>
+  <si>
+    <t>Provide 2-3 example summaries based on coordinates as conditioning</t>
+  </si>
+  <si>
+    <t>Chaining</t>
+  </si>
+  <si>
+    <t>Break down into initial summary generation prompt + asking clarification questions</t>
+  </si>
+  <si>
+    <t>Fine-Tuning</t>
+  </si>
+  <si>
+    <t>$1,000-5,000</t>
+  </si>
+  <si>
+    <t>PEFT</t>
+  </si>
+  <si>
+    <t>Only fine-tune attention layers, keep other weights fixed</t>
+  </si>
+  <si>
+    <t>$500-1,000</t>
+  </si>
+  <si>
+    <t>Retrieval Augmentation</t>
+  </si>
+  <si>
+    <t>Task Training</t>
+  </si>
+  <si>
+    <t>$5,000-10,000</t>
+  </si>
+  <si>
+    <t>Model Surgery</t>
+  </si>
+  <si>
+    <t>$10,000+</t>
+  </si>
+  <si>
+    <t>Model Expansion</t>
+  </si>
+  <si>
+    <t>$50,000+</t>
+  </si>
+  <si>
+    <t>Low Level Access:</t>
+  </si>
+  <si>
+    <t>High Level Access:</t>
+  </si>
+  <si>
+    <t>Highest Level Access:</t>
+  </si>
+  <si>
+    <t>Token Estimate</t>
+  </si>
+  <si>
+    <t>10,000 tokens for prompts/completions</t>
+  </si>
+  <si>
+    <t>50,000 tokens for iteration</t>
+  </si>
+  <si>
+    <t>10,000 tokens</t>
+  </si>
+  <si>
+    <t>50,000 tokens</t>
+  </si>
+  <si>
+    <t>Depends on retriever model size</t>
+  </si>
+  <si>
+    <t>Full model training cost</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Released Year</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>No of Parameters</t>
+  </si>
+  <si>
+    <t>GPT-4</t>
+  </si>
+  <si>
+    <t>Anthropic</t>
+  </si>
+  <si>
+    <t>100 billion</t>
+  </si>
+  <si>
+    <t>GPT-3.5</t>
+  </si>
+  <si>
+    <t>20 billion</t>
+  </si>
+  <si>
+    <t>GPT-2</t>
+  </si>
+  <si>
+    <t>OpenAI</t>
+  </si>
+  <si>
+    <t>1.5 billion</t>
+  </si>
+  <si>
+    <t>GPT</t>
+  </si>
+  <si>
+    <t>117 million</t>
+  </si>
+  <si>
+    <t>LLAMA</t>
+  </si>
+  <si>
+    <t>7 billion</t>
+  </si>
+  <si>
+    <t>LLaMA 2</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>65 billion</t>
+  </si>
+  <si>
+    <t>PALM</t>
+  </si>
+  <si>
+    <t>537 million</t>
+  </si>
+  <si>
+    <t>Pi</t>
+  </si>
+  <si>
+    <t>280 billion</t>
+  </si>
+  <si>
+    <t>Claude</t>
+  </si>
+  <si>
+    <t>13 billion</t>
+  </si>
+  <si>
+    <t>Query GPT with prompt formatting image coordinates, get raw completion</t>
+  </si>
+  <si>
+    <t>$1-10</t>
+  </si>
+  <si>
+    <t>$5-50</t>
+  </si>
+  <si>
+    <t>Train GPT model end-to-end on dataset of (image coordinates, text summary) pairs</t>
+  </si>
+  <si>
+    <t>117M parameters updated</t>
+  </si>
+  <si>
+    <t>$100-1,000</t>
+  </si>
+  <si>
+    <t>10M parameters updated</t>
+  </si>
+  <si>
+    <t>Train retriever to find similar image examples as context for GPT</t>
+  </si>
+  <si>
+    <t>Use framework like T0 to customize GPT for summarization task</t>
+  </si>
+  <si>
+    <t>Modify internals of GPT architecture for better vision processing</t>
+  </si>
+  <si>
+    <t>$5,000+</t>
+  </si>
+  <si>
+    <t>Train larger GPT model from scratch on more data</t>
+  </si>
+  <si>
+    <t>Mid-Level Access:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated Cost ($) GPT 117M </t>
+  </si>
+  <si>
+    <t>COST of Augmenting LLMs</t>
+  </si>
+  <si>
+    <r>
+      <t>GPT 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1.5B</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,19 +284,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.6"/>
-      <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <color rgb="FF44546A"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9.6"/>
-      <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,18 +342,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF7F7F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF99FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,53 +447,31 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFD9D9E3"/>
+        <color rgb="FFA3A3A3"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
       <top style="medium">
-        <color rgb="FFD9D9E3"/>
+        <color rgb="FFA3A3A3"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
+        <color rgb="FFA3A3A3"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -209,37 +479,137 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -249,6 +619,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFCC"/>
       <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
@@ -559,57 +930,448 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3935CE5C-59D3-4268-907F-C6085B88EC5C}">
-  <dimension ref="E1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133215F9-F823-4D51-B927-A4BDA981636E}">
+  <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="45.90625" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="12.08984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="4.90625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="14.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:6" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E1" s="1" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="5"/>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="7"/>
+      <c r="C3" s="24">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="25">
+        <v>2023</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="8"/>
+      <c r="C4" s="24">
+        <v>2</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="25">
+        <v>2022</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="8"/>
+      <c r="C5" s="21">
+        <v>3</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="22">
+        <v>2019</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="8"/>
+      <c r="C6" s="21">
+        <v>4</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="22">
+        <v>2018</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="9"/>
+      <c r="C7" s="18">
+        <v>5</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="19">
+        <v>2022</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="9"/>
+      <c r="C8" s="18">
+        <v>6</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="19">
+        <v>2023</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="9"/>
+      <c r="C9" s="6">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2021</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="9"/>
+      <c r="C10" s="6">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2023</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="10"/>
+      <c r="C11" s="6">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2023</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="10"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231D8835-5AA5-4482-84FB-391AF1CEB12D}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="42.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.6328125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="28.26953125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="28.6328125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="42.36328125" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:6" ht="37.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="5:6" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="5:6" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="5:6" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="5:6" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="3" t="s">
+    <row r="5" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="33"/>
+      <c r="B5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="C5" s="32" t="s">
         <v>9</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="33"/>
+      <c r="B6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="36"/>
+      <c r="B8" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="36"/>
+      <c r="B9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="36"/>
+      <c r="B10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="38"/>
+      <c r="B12" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -617,148 +1379,173 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6C684F-6441-47BD-8000-4E4804C8D437}">
-  <dimension ref="D1:F11"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A6DB57-9309-487B-A81F-77F0D9EFB254}">
+  <dimension ref="E2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="32.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="8.7265625" style="9"/>
-    <col min="4" max="4" width="5.36328125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="29.90625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="62.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="9"/>
+    <col min="5" max="5" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E1" s="8" t="str">
-        <f>Sheet1!E1</f>
-        <v>Fraud Type</v>
-      </c>
-      <c r="F1" s="6" t="str">
-        <f>Sheet1!F1</f>
-        <v>Description</v>
-      </c>
-    </row>
-    <row r="2" spans="4:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="7">
+    <row r="2" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="str">
-        <f>Sheet1!E2</f>
-        <v>Unauthorized account opened in my name</v>
-      </c>
-      <c r="F2" s="5" t="str">
-        <f>Sheet1!F2</f>
-        <v>An account was created without the knowledge or consent of the person.</v>
-      </c>
-    </row>
-    <row r="3" spans="4:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="7">
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="str">
-        <f>Sheet1!E3</f>
-        <v>Unauthorized charges were billed to my account</v>
-      </c>
-      <c r="F3" s="5" t="str">
-        <f>Sheet1!F3</f>
-        <v>Unexpected charges have appeared on the bill.</v>
-      </c>
-    </row>
-    <row r="4" spans="4:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="7">
+    </row>
+    <row r="3" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="str">
-        <f>Sheet1!E4</f>
-        <v>Unauthorized changes were made to my account</v>
-      </c>
-      <c r="F4" s="5" t="str">
-        <f>Sheet1!F4</f>
-        <v>Alterations to the account details or services without permission.</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="7">
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="10" t="str">
-        <f>Sheet1!E5</f>
-        <v>Unauthorized wireless number on my bill</v>
-      </c>
-      <c r="F5" s="5" t="str">
-        <f>Sheet1!F5</f>
-        <v>A phone number that the account holde</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="7">
-        <v>5</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="7">
-        <v>6</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5" t="s">
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="4:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="7">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="7">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="7">
-        <v>9</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="7">
-        <v>10</v>
-      </c>
-      <c r="E11" s="10" t="s">
+    <row r="11" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
         <v>21</v>
       </c>
     </row>
